--- a/Timing.xlsx
+++ b/Timing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wyatt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Talon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>size</t>
   </si>
@@ -36,6 +36,24 @@
   </si>
   <si>
     <t>Wyatt Emery Talon Marquard</t>
+  </si>
+  <si>
+    <t>Slow Version:</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>ave:</t>
+  </si>
+  <si>
+    <t>This is growing at n^2 because as size doubles, time is 4 times as much</t>
   </si>
 </sst>
 </file>
@@ -353,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,25 +382,37 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -393,8 +423,18 @@
         <f>B4/(A4*LOG(A4,2))</f>
         <v>1.6768775565130184E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4">
+        <v>0.114937</v>
+      </c>
+      <c r="I4">
+        <f>H5/H4</f>
+        <v>3.8870685679981207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -405,8 +445,18 @@
         <f t="shared" ref="C5:C8" si="0">B5/(A5*LOG(A5,2))</f>
         <v>1.6364492984874522E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>2000</v>
+      </c>
+      <c r="H5">
+        <v>0.446768</v>
+      </c>
+      <c r="I5">
+        <f>H6/H5</f>
+        <v>4.0122166314507757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4000</v>
       </c>
@@ -417,8 +467,18 @@
         <f t="shared" si="0"/>
         <v>1.7503428527327377E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>4000</v>
+      </c>
+      <c r="H6">
+        <v>1.79253</v>
+      </c>
+      <c r="I6">
+        <f>H7/H6</f>
+        <v>4.2096143439719285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8000</v>
       </c>
@@ -429,8 +489,18 @@
         <f t="shared" si="0"/>
         <v>1.67950696401452E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>8000</v>
+      </c>
+      <c r="H7">
+        <v>7.5458600000000002</v>
+      </c>
+      <c r="I7">
+        <f>H8/H7</f>
+        <v>3.7783234780396135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16000</v>
       </c>
@@ -440,6 +510,26 @@
       <c r="C8">
         <f t="shared" si="0"/>
         <v>1.7224820324927459E-5</v>
+      </c>
+      <c r="G8">
+        <v>16000</v>
+      </c>
+      <c r="H8">
+        <v>28.5107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <f>(I4+I5+I6+I7)/4</f>
+        <v>3.9718057553651098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
